--- a/data/case1/11/details_13.xlsx
+++ b/data/case1/11/details_13.xlsx
@@ -61,18 +61,18 @@
     <col min="3" max="3" width="3.140625" customWidth="true"/>
     <col min="4" max="4" width="3.140625" customWidth="true"/>
     <col min="5" max="5" width="3.140625" customWidth="true"/>
-    <col min="6" max="6" width="3.140625" customWidth="true"/>
-    <col min="7" max="7" width="3.140625" customWidth="true"/>
-    <col min="8" max="8" width="2.140625" customWidth="true"/>
-    <col min="9" max="9" width="2.140625" customWidth="true"/>
-    <col min="10" max="10" width="2.140625" customWidth="true"/>
+    <col min="6" max="6" width="2.140625" customWidth="true"/>
+    <col min="7" max="7" width="2.140625" customWidth="true"/>
+    <col min="8" max="8" width="3.140625" customWidth="true"/>
+    <col min="9" max="9" width="3.140625" customWidth="true"/>
+    <col min="10" max="10" width="3.140625" customWidth="true"/>
     <col min="11" max="11" width="3.140625" customWidth="true"/>
     <col min="12" max="12" width="3.140625" customWidth="true"/>
-    <col min="13" max="13" width="5.7109375" customWidth="true"/>
+    <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="5.7109375" customWidth="true"/>
     <col min="15" max="15" width="5.7109375" customWidth="true"/>
-    <col min="16" max="16" width="5.7109375" customWidth="true"/>
-    <col min="17" max="17" width="5.7109375" customWidth="true"/>
+    <col min="16" max="16" width="4.7109375" customWidth="true"/>
+    <col min="17" max="17" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -83,49 +83,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G1" s="0">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H1" s="0">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L1" s="0">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M1" s="0">
-        <v>0.047</v>
+        <v>0.021989999999999999</v>
       </c>
       <c r="N1" s="0">
-        <v>0.0080000000000000002</v>
+        <v>0.060999999999999999</v>
       </c>
       <c r="O1" s="0">
-        <v>0.0040000000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="P1" s="0">
-        <v>0.047</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="Q1" s="0">
-        <v>0.074999999999999997</v>
+        <v>0.029999999999999999</v>
       </c>
     </row>
   </sheetData>
